--- a/Data Files/Product.xlsx
+++ b/Data Files/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quochuy.lu\git\Katalon-certification\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0376A-841D-41CB-8FB2-0AF5E289965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52290E-EA8B-4307-B934-96DBA7D82940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD3CF85-118A-48E8-BCA3-B8A405237B11}"/>
+    <workbookView xWindow="30105" yWindow="120" windowWidth="23475" windowHeight="15360" xr2:uid="{EDD3CF85-118A-48E8-BCA3-B8A405237B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Men</t>
   </si>
   <si>
-    <t>Kid</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -111,6 +108,33 @@
   </si>
   <si>
     <t>Dark Blue</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Blazer</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Knitwear</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Jackets</t>
   </si>
 </sst>
 </file>
@@ -482,19 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561681BD-8C5C-4E0A-BC4D-15B7852C2305}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +532,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -521,8 +549,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -535,8 +566,11 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -544,13 +578,16 @@
         <v>79.989999999999995</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -558,13 +595,16 @@
         <v>45.99</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -572,13 +612,16 @@
         <v>99.99</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -586,13 +629,16 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -600,13 +646,16 @@
         <v>45.9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -614,13 +663,16 @@
         <v>35.950000000000003</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -628,13 +680,16 @@
         <v>29.99</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -642,13 +697,17 @@
         <v>79.989999999999995</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/Product.xlsx
+++ b/Data Files/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quochuy.lu\git\Katalon-certification\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52290E-EA8B-4307-B934-96DBA7D82940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C80904-6334-45B0-970A-C26CCCF8753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30105" yWindow="120" windowWidth="23475" windowHeight="15360" xr2:uid="{EDD3CF85-118A-48E8-BCA3-B8A405237B11}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Basic Top</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Women</t>
   </si>
   <si>
@@ -86,30 +83,9 @@
     <t>Belted Plaid Blazer</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Oyster White</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Light Blue</t>
-  </si>
-  <si>
-    <t>Dark Blue</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -135,6 +111,30 @@
   </si>
   <si>
     <t>Jackets</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>dark blue</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>oyster white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>gray</t>
   </si>
 </sst>
 </file>
@@ -170,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +510,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,167 +544,167 @@
       <c r="B2">
         <v>25.99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>79.989999999999995</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>79.989999999999995</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>45.99</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>99.99</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>16.899999999999999</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>45.9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>35.950000000000003</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>29.99</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>79.989999999999995</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Product.xlsx
+++ b/Data Files/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quochuy.lu\git\Katalon-certification\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C80904-6334-45B0-970A-C26CCCF8753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAE4E46-6272-4FCD-8EEC-FB3C349B94ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30105" yWindow="120" windowWidth="23475" windowHeight="15360" xr2:uid="{EDD3CF85-118A-48E8-BCA3-B8A405237B11}"/>
   </bookViews>
@@ -170,9 +170,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +509,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +543,7 @@
       <c r="B2">
         <v>25.99</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
